--- a/ref/16s_18s_ITS_db.xlsx
+++ b/ref/16s_18s_ITS_db.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/bio-apple/eDNA/12s_16s_18s_CO1_ITS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yfan/Desktop/bio-apple/eDNA/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8159EDD-1E92-E94F-A355-C7461679D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D5ACE-EEAB-8D4D-B00F-5FB9C42F40E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="2900" windowWidth="29400" windowHeight="16660" xr2:uid="{09F187BE-8A86-4B47-81CB-5D888BF8643C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Database</t>
   </si>
@@ -124,6 +124,19 @@
   </si>
   <si>
     <t>https://doi.org/10.6084/m9.figshare.17040680</t>
+  </si>
+  <si>
+    <t>Mitohelper</t>
+  </si>
+  <si>
+    <t>Mar 2025 update</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15028392</t>
+  </si>
+  <si>
+    <t>12s-18s-16s-CO1(only fish eDNA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -191,13 +204,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3F7C03-2F00-454E-93CD-FEA612B52C47}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="90" style="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="1" customWidth="1"/>
     <col min="4" max="4" width="62.33203125" style="1" customWidth="1"/>
@@ -564,7 +577,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -578,7 +591,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -590,7 +603,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -616,7 +629,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -630,7 +643,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
@@ -645,13 +658,13 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>45640</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -659,15 +672,15 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="23">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
@@ -675,6 +688,20 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="23">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -689,6 +716,7 @@
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" xr:uid="{5C156543-B8BA-FE4D-9A3A-BFDE4C8B5F0B}"/>
     <hyperlink ref="A10" r:id="rId2" display="https://doi.org/10.6084/m9.figshare.17040680" xr:uid="{7A7F7BA9-7A9B-7547-B1D4-E83B210D4295}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{984F2E44-B172-F440-ABA3-BE4515192BF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
